--- a/Test Data/TC_205_Verify_If_We_Can_Add_More_IS_Devices_To_EXI800_When_We_Decrease_Increase_The_Cable_Capacitance_Value.xlsx
+++ b/Test Data/TC_205_Verify_If_We_Can_Add_More_IS_Devices_To_EXI800_When_We_Decrease_Increase_The_Cable_Capacitance_Value.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E67A3C3-BDAC-4590-B2B8-F86B3A5113F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C38F26-20C2-4603-90E2-9F1C693FB219}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>TC-205</t>
   </si>
   <si>
-    <t>0 / 1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Default Cable Capacitance</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 1/ 1</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,7 +835,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>33</v>
@@ -844,7 +844,7 @@
         <v>37</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5">
         <v>120</v>
@@ -995,7 +995,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>33</v>
@@ -1004,7 +1004,7 @@
         <v>37</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1021,7 +1021,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5">
         <v>120</v>
@@ -1050,7 +1050,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5">
         <v>120</v>
@@ -1079,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5">
         <v>120</v>

--- a/Test Data/TC_205_Verify_If_We_Can_Add_More_IS_Devices_To_EXI800_When_We_Decrease_Increase_The_Cable_Capacitance_Value.xlsx
+++ b/Test Data/TC_205_Verify_If_We_Can_Add_More_IS_Devices_To_EXI800_When_We_Decrease_Increase_The_Cable_Capacitance_Value.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C38F26-20C2-4603-90E2-9F1C693FB219}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add EXI Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Add IS Devices" sheetId="7" r:id="rId2"/>
     <sheet name="Test data" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Color Codes</t>
   </si>
@@ -171,15 +170,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 1/ 1</t>
-  </si>
-  <si>
-    <t>1 / 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -724,11 +720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,8 +856,8 @@
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>46</v>
+      <c r="E8" s="11">
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <v>120</v>
@@ -887,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119372F-65FB-40BB-8159-5C1CA68BD5E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
